--- a/data/comments_to_code/merged_codes.xlsx
+++ b/data/comments_to_code/merged_codes.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7677,6 +7677,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7745,7 +7750,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7821,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7892,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -7958,7 +7963,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8027,6 +8032,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8095,7 +8105,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8176,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8235,6 +8245,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8303,7 +8318,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8372,6 +8387,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8440,7 +8460,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8531,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8602,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8673,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8722,6 +8742,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8790,7 +8815,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8886,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -8930,6 +8955,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8998,7 +9028,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9099,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9170,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9241,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9312,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9383,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9454,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9525,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9596,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9667,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9738,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9809,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9880,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9951,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -9992,7 +10022,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10093,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10134,7 +10164,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10235,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10306,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10377,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10448,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10489,7 +10519,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10590,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10661,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10732,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10803,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10874,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10945,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -10986,7 +11016,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11057,7 +11087,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11158,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11229,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11300,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11371,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11412,7 +11442,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11483,7 +11513,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11584,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11625,7 +11655,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11696,7 +11726,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11797,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11868,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11909,7 +11939,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -11980,7 +12010,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12051,7 +12081,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12152,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12223,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12264,7 +12294,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12335,7 +12365,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12406,7 +12436,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12475,6 +12505,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12543,7 +12578,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -12614,7 +12649,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12720,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12791,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12862,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12898,7 +12933,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -12969,7 +13004,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13040,7 +13075,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13146,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13182,7 +13217,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13288,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13359,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13430,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13466,7 +13501,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13572,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13643,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13714,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13750,7 +13785,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13856,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13892,7 +13927,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13998,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14069,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14140,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14176,7 +14211,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14282,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14318,7 +14353,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14424,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14460,7 +14495,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14566,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14637,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14708,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14779,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14850,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14921,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14992,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15028,7 +15063,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15134,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15170,7 +15205,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -15239,6 +15274,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15307,7 +15347,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15376,6 +15416,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15444,7 +15489,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15560,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15631,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15702,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15773,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15844,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15915,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15986,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16057,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -16083,7 +16128,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16199,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16225,7 +16270,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16341,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16367,7 +16412,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16483,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16554,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16580,7 +16625,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16651,7 +16696,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16720,6 +16765,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16788,7 +16838,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16859,7 +16909,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16980,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17001,7 +17051,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17072,7 +17122,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17193,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17214,7 +17264,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17335,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17356,7 +17406,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17427,7 +17477,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17498,7 +17548,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17569,7 +17619,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17690,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17761,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17832,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17851,6 +17901,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17919,7 +17974,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -17990,7 +18045,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18059,6 +18114,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18127,7 +18187,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18198,7 +18258,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18329,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18338,6 +18398,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18406,7 +18471,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -18477,7 +18542,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18613,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18684,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18755,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18759,6 +18824,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18827,7 +18897,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -18896,6 +18966,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18962,6 +19037,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -19030,7 +19110,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19101,7 +19181,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19172,7 +19252,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19323,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19314,7 +19394,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19465,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19454,6 +19534,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -19522,7 +19607,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -19593,7 +19678,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19749,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19733,6 +19818,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -19801,7 +19891,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19872,7 +19962,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -19943,7 +20033,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20014,7 +20104,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20175,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20156,7 +20246,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20317,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20296,6 +20386,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -20364,7 +20459,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20435,7 +20530,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20601,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20575,6 +20670,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -20643,7 +20743,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -20712,6 +20812,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -20778,6 +20883,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -20846,7 +20956,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -20915,6 +21025,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -20983,7 +21098,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21052,6 +21167,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -21120,7 +21240,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21191,7 +21311,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21260,6 +21380,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -21328,7 +21453,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21399,7 +21524,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21470,7 +21595,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21539,6 +21664,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -21607,7 +21737,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21678,7 +21808,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21879,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21818,6 +21948,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -21886,7 +22021,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -21955,6 +22090,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -22021,6 +22161,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -22087,6 +22232,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -22155,7 +22305,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22376,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22447,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22518,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22589,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22660,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -22581,7 +22731,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22802,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22723,7 +22873,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22792,6 +22942,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -22860,7 +23015,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -22929,6 +23084,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -22997,7 +23157,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23228,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23137,6 +23297,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -23205,7 +23370,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -23276,7 +23441,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -23345,6 +23510,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -23413,7 +23583,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23654,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -23555,7 +23725,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23624,6 +23794,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -23690,6 +23865,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -23758,7 +23938,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23829,7 +24009,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -23898,6 +24078,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -23966,7 +24151,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -24035,6 +24220,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -24103,7 +24293,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -24174,7 +24364,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -24245,7 +24435,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -24314,6 +24504,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -24382,7 +24577,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -24453,7 +24648,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -24524,7 +24719,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -24595,7 +24790,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24861,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -24737,7 +24932,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -24806,6 +25001,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -24872,6 +25072,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -24940,7 +25145,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25009,6 +25214,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -25075,6 +25285,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -25143,7 +25358,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25212,6 +25427,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -25280,7 +25500,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -25349,6 +25569,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -25415,6 +25640,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -25481,6 +25711,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -25547,6 +25782,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -25615,7 +25855,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25926,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25757,7 +25997,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25828,7 +26068,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25899,7 +26139,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -25968,6 +26208,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -26036,7 +26281,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26352,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26178,7 +26423,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26249,7 +26494,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26318,6 +26563,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -26384,6 +26634,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -26450,6 +26705,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -26518,7 +26778,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26589,7 +26849,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -26658,6 +26918,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -26724,6 +26989,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -26790,6 +27060,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -26856,6 +27131,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -26924,7 +27204,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -26995,7 +27275,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -27064,6 +27344,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -27130,6 +27415,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -27198,7 +27488,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -27269,7 +27559,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>approve</t>
+          <t>favor</t>
         </is>
       </c>
     </row>
@@ -27338,6 +27628,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -27404,6 +27699,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -27470,6 +27770,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -27536,6 +27841,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -27604,7 +27914,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -27673,6 +27983,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -27741,7 +28056,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -27810,6 +28125,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -27876,6 +28196,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -27942,6 +28267,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -28008,6 +28338,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -28074,6 +28409,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -28140,6 +28480,11 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -28208,7 +28553,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>oppose</t>
         </is>
       </c>
     </row>
@@ -28277,6 +28622,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -28343,6 +28693,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -28409,6 +28764,11 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -28473,6 +28833,11 @@
       <c r="N401" t="inlineStr">
         <is>
           <t>positive</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
